--- a/Notebooks/mTOR inhibitor.xlsx
+++ b/Notebooks/mTOR inhibitor.xlsx
@@ -23,10 +23,10 @@
     <t>conc</t>
   </si>
   <si>
-    <t>Prediction</t>
-  </si>
-  <si>
     <t>Target Profiles</t>
+  </si>
+  <si>
+    <t>Decision Value</t>
   </si>
   <si>
     <t xml:space="preserve"> Acetochlor</t>
@@ -722,11 +722,11 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.690731056618619</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -736,11 +736,11 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.298239512049306</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -750,11 +750,11 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4141575177926655</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -764,11 +764,11 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6340749670748456</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -778,11 +778,11 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6222317177456598</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -790,11 +790,11 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03094945890902834</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -804,11 +804,11 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.793848048596226</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -818,11 +818,11 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2683816910580449</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -832,11 +832,11 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3587697663982794</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -846,11 +846,11 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2482322641765654</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -860,11 +860,11 @@
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1667129972337751</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -874,11 +874,11 @@
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>28</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6013774138398407</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -886,11 +886,11 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>29</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1062744174521235</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -900,11 +900,11 @@
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>31</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3265547663849981</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -912,11 +912,11 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>32</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3855536852341104</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -924,11 +924,11 @@
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>34</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.06198135607358113</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -938,11 +938,11 @@
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>36</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2696067708198087</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -952,11 +952,11 @@
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>38</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1927912235195841</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -966,11 +966,11 @@
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>40</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.06519440249115838</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -980,11 +980,11 @@
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>42</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2638675396083252</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -994,11 +994,11 @@
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>44</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8609885330420388</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1006,11 +1006,11 @@
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>45</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.04355665898380012</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1020,11 +1020,11 @@
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>47</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9629465902553824</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1034,11 +1034,11 @@
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>49</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3164093012675422</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1048,11 +1048,11 @@
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>51</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.818149756653747</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1062,11 +1062,11 @@
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s">
         <v>53</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6211737127096526</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1074,11 +1074,11 @@
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>54</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1476177483730737</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1088,11 +1088,11 @@
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>56</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.03197049587123491</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1102,11 +1102,11 @@
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
         <v>58</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.3441794540684837</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1116,11 +1116,11 @@
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>60</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5792636030941254</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1130,11 +1130,11 @@
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>62</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.305752727677395</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1142,11 +1142,11 @@
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
         <v>63</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1332895353523982</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1156,11 +1156,11 @@
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s">
         <v>65</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.2639850516004432</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1170,11 +1170,11 @@
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>67</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.06318955996602649</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1184,11 +1184,11 @@
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" t="s">
         <v>69</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3191724339752287</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1198,11 +1198,11 @@
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>71</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7395741536120972</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1210,11 +1210,11 @@
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>72</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.6409071577834462</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1224,11 +1224,11 @@
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" t="s">
         <v>74</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7488356131614147</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1238,11 +1238,11 @@
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>76</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.6306848699001426</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1252,11 +1252,11 @@
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>78</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.6382595914674734</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1264,11 +1264,11 @@
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" t="s">
         <v>79</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.05872784615543669</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1278,11 +1278,11 @@
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>81</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2071424287746217</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1292,11 +1292,11 @@
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>83</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9394197156516624</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1306,11 +1306,11 @@
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s">
         <v>85</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.2170350290524056</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1320,11 +1320,11 @@
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>87</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.725521041786793</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1334,11 +1334,11 @@
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>89</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.017529290421866</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1348,11 +1348,11 @@
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" t="s">
         <v>91</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01548929693628687</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1362,11 +1362,11 @@
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" t="s">
         <v>93</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8736509033066058</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1374,11 +1374,11 @@
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" t="s">
         <v>94</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.04248159508144878</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1388,11 +1388,11 @@
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>96</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4562038045166192</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1402,11 +1402,11 @@
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>98</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8163481820617868</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1414,11 +1414,11 @@
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" t="s">
         <v>99</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2748422965366765</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1428,11 +1428,11 @@
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
         <v>101</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.029801947758923</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1442,11 +1442,11 @@
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" t="s">
         <v>103</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5801536470806854</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1456,11 +1456,11 @@
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s">
         <v>105</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.02070496101486308</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1470,11 +1470,11 @@
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s">
         <v>107</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.898917702907339</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1482,11 +1482,11 @@
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>108</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.515764059439522</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1494,11 +1494,11 @@
       <c r="B59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>109</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.889695654144226</v>
       </c>
     </row>
   </sheetData>

--- a/Notebooks/mTOR inhibitor.xlsx
+++ b/Notebooks/mTOR inhibitor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>agent</t>
   </si>
@@ -29,49 +29,214 @@
     <t>Decision Value</t>
   </si>
   <si>
+    <t xml:space="preserve"> Trifloxystrobin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40000 nM</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Trifloxystrobin, BSK-C005765, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prochloraz</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Prochloraz, BSK-C005828, 40000 nM</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Acetochlor</t>
   </si>
   <si>
-    <t xml:space="preserve"> 40000 nM</t>
-  </si>
-  <si>
     <t>ToxCast_Screen, R1, Acetochlor, BSK-C005622, 40000 nM</t>
   </si>
   <si>
+    <t xml:space="preserve"> 13000 nM</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Trifloxystrobin, BSK-C005765, 13000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fluoxastrobin</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Fluoxastrobin, BSK-C005754, 40000 nM</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Alachlor</t>
   </si>
   <si>
     <t>ToxCast_Screen, R1, Alachlor, BSK-C005632, 40000 nM</t>
   </si>
   <si>
+    <t xml:space="preserve"> Tetramethrin</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Tetramethrin, BSK-C005784, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Profenofos</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Profenofos, BSK-C005826, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenarimol</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Fenarimol, BSK-C005685, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4400 nM</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Trifloxystrobin, BSK-C005765, 4400 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenamidone</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Fenamidone, BSK-C005858, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenoxycarb</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Fenoxycarb, BSK-C005681, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phosalone</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Phosalone, BSK-C005835, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resmethrin</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Resmethrin, BSK-C005802, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tetraconazole</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Tetraconazole, BSK-C005785, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MGK</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, MGK, BSK-C005721, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indoxacarb</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Indoxacarb, BSK-C005731, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bifenthrin</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Bifenthrin, BSK-C005896, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Benomyl</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Benomyl, BSK-C005900, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flumiclorac-Pentyl</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Flumiclorac-Pentyl, BSK-C005757, 40000 nM</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Indoxacarb, BSK-C005731, 13000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mancozeb</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Mancozeb, BSK-C005717, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oxyfluorfen</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Oxyfluorfen, BSK-C005845, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiazopyr</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Thiazopyr, BSK-C005780, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diethylhexyl Phthalate</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Diethylhexyl Phthalate, BSK-C005661, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Benfluralin</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Benfluralin, BSK-C005901, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tefluthrin</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Tefluthrin, BSK-C005788, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenpropathrin</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Fenpropathrin, BSK-C005680, 40000 nM</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Azoxystrobin</t>
   </si>
   <si>
     <t>ToxCast_Screen, R1, Azoxystrobin, BSK-C005903, 40000 nM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Benfluralin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Benfluralin, BSK-C005901, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Benomyl</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Benomyl, BSK-C005900, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Benomyl, BSK-C005900, 13000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bifenthrin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Bifenthrin, BSK-C005896, 40000 nM</t>
+    <t xml:space="preserve"> Difenzoquat Metilsulfate</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Difenzoquat Metilsulfate, BSK-C005872, 13000 nM</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Difenzoquat Metilsulfate, BSK-C005872, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carbaryl</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Carbaryl, BSK-C005891, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenitrothion</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Fenitrothion, BSK-C005682, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Imazalil</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Imazalil, BSK-C005738, 40000 nM</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Tetraconazole, BSK-C005785, 13000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flumetralin</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Flumetralin, BSK-C005850, 40000 nM</t>
   </si>
   <si>
     <t xml:space="preserve"> Bromoxynil</t>
@@ -80,10 +245,16 @@
     <t>ToxCast_Screen, R1, Bromoxynil, BSK-C005637, 40000 nM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carbaryl</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Carbaryl, BSK-C005891, 40000 nM</t>
+    <t xml:space="preserve"> Dimethomorph</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Dimethomorph, BSK-C005869, 40000 nM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flusilazole</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Flusilazole, BSK-C005751, 40000 nM</t>
   </si>
   <si>
     <t xml:space="preserve"> Cyfluthrin</t>
@@ -92,259 +263,25 @@
     <t>ToxCast_Screen, R1, Cyfluthrin, BSK-C005654, 40000 nM</t>
   </si>
   <si>
+    <t xml:space="preserve"> Diquat Dibromide</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Diquat Dibromide, BSK-C005865, 40000 nM</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Dichlorvos</t>
   </si>
   <si>
     <t>ToxCast_Screen, R1, Dichlorvos, BSK-C005665, 40000 nM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diethylhexyl Phthalate</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Diethylhexyl Phthalate, BSK-C005661, 40000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Diethylhexyl Phthalate, BSK-C005661, 13000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Difenzoquat Metilsulfate</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Difenzoquat Metilsulfate, BSK-C005872, 40000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Difenzoquat Metilsulfate, BSK-C005872, 13000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4400 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Difenzoquat Metilsulfate, BSK-C005872, 4400 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dimethomorph</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Dimethomorph, BSK-C005869, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Diquat Dibromide</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Diquat Dibromide, BSK-C005865, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Esfenvalerate</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Esfenvalerate, BSK-C005671, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ethalfluralin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Ethalfluralin, BSK-C005670, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenamidone</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Fenamidone, BSK-C005858, 40000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Fenamidone, BSK-C005858, 13000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenarimol</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Fenarimol, BSK-C005685, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenitrothion</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Fenitrothion, BSK-C005682, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenoxycarb</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Fenoxycarb, BSK-C005681, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenpropathrin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Fenpropathrin, BSK-C005680, 40000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Fenpropathrin, BSK-C005680, 13000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flufenacet</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Flufenacet, BSK-C005852, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flumetralin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Flumetralin, BSK-C005850, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flumiclorac-Pentyl</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Flumiclorac-Pentyl, BSK-C005757, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fluoxastrobin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Fluoxastrobin, BSK-C005754, 40000 nM</t>
+    <t xml:space="preserve"> Pirimiphos-Methyl</t>
+  </si>
+  <si>
+    <t>ToxCast_Screen, R1, Pirimiphos-Methyl, BSK-C005831, 40000 nM</t>
   </si>
   <si>
     <t>ToxCast_Screen, R1, Fluoxastrobin, BSK-C005754, 13000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flusilazole</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Flusilazole, BSK-C005751, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Formetanate Hydrochloride</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Formetanate Hydrochloride, BSK-C005745, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Imazalil</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Imazalil, BSK-C005738, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indoxacarb</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Indoxacarb, BSK-C005731, 40000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Indoxacarb, BSK-C005731, 13000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MGK</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, MGK, BSK-C005721, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mancozeb</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Mancozeb, BSK-C005717, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oxyfluorfen</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Oxyfluorfen, BSK-C005845, 40000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Oxyfluorfen, BSK-C005845, 13000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Permethrin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Permethrin, BSK-C005837, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phosalone</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Phosalone, BSK-C005835, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pirimiphos-Methyl</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Pirimiphos-Methyl, BSK-C005831, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prochloraz</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Prochloraz, BSK-C005828, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Profenofos</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Profenofos, BSK-C005826, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Propiconazole</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Propiconazole, BSK-C005817, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Resmethrin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Resmethrin, BSK-C005802, 40000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Resmethrin, BSK-C005802, 13000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tefluthrin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Tefluthrin, BSK-C005788, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tetraconazole</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Tetraconazole, BSK-C005785, 40000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Tetraconazole, BSK-C005785, 13000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tetramethrin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Tetramethrin, BSK-C005784, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiazopyr</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Thiazopyr, BSK-C005780, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Triadimenol</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Triadimenol, BSK-C005771, 40000 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trifloxystrobin</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Trifloxystrobin, BSK-C005765, 40000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Trifloxystrobin, BSK-C005765, 13000 nM</t>
-  </si>
-  <si>
-    <t>ToxCast_Screen, R1, Trifloxystrobin, BSK-C005765, 4400 nM</t>
   </si>
 </sst>
 </file>
@@ -693,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.690731056618619</v>
+        <v>2.199387863482898</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -740,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.298239512049306</v>
+        <v>1.881019864092607</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -754,21 +691,21 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4141575177926655</v>
+        <v>1.845623028312648</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6340749670748456</v>
+        <v>1.726973492918285</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -782,19 +719,21 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6222317177456598</v>
+        <v>1.549538556534593</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03094945890902834</v>
+        <v>1.448997581042875</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -808,7 +747,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>0.793848048596226</v>
+        <v>1.087284081991736</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -822,7 +761,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2683816910580449</v>
+        <v>1.023141767665515</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -836,21 +775,21 @@
         <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3587697663982794</v>
+        <v>0.9516717419008573</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2482322641765654</v>
+        <v>0.9466302387938115</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -864,7 +803,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1667129972337751</v>
+        <v>0.8889472362408759</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -878,642 +817,458 @@
         <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6013774138398407</v>
+        <v>0.8745275943442112</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1062744174521235</v>
+        <v>0.8413589252842377</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3265547663849981</v>
+        <v>0.8367326041963887</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3855536852341104</v>
+        <v>0.7811458801960549</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06198135607358113</v>
+        <v>0.7407874468634825</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2696067708198087</v>
+        <v>0.66685296689341</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1927912235195841</v>
+        <v>0.6470213773484326</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06519440249115838</v>
+        <v>0.638756271929368</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2638675396083252</v>
+        <v>0.6151656789812978</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8609885330420388</v>
+        <v>0.5869778123765734</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04355665898380012</v>
+        <v>0.5664304461906913</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9629465902553824</v>
+        <v>0.5616927814432513</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3164093012675422</v>
+        <v>0.5094513418691551</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" t="n">
-        <v>0.818149756653747</v>
+        <v>0.4679026867752327</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6211737127096526</v>
+        <v>0.4635737905008357</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1476177483730737</v>
+        <v>0.4236719698879743</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03197049587123491</v>
+        <v>0.3874414063009048</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3441794540684837</v>
+        <v>0.3357934239789808</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5792636030941254</v>
+        <v>0.3167843750751718</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D32" t="n">
-        <v>1.305752727677395</v>
+        <v>0.2535093172297209</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1" t="n"/>
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1332895353523982</v>
+        <v>0.2424463524462253</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2639850516004432</v>
+        <v>0.2193378675602973</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06318955996602649</v>
+        <v>0.2148132141133976</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3191724339752287</v>
+        <v>0.1929834222528339</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7395741536120972</v>
+        <v>0.1669517875982529</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6409071577834462</v>
+        <v>0.1631340645440109</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7488356131614147</v>
+        <v>0.1334198810340941</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6306848699001426</v>
+        <v>0.1216331506603232</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6382595914674734</v>
+        <v>0.1211422995672116</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1" t="n"/>
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05872784615543669</v>
+        <v>0.09155776856577624</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2071424287746217</v>
+        <v>0.04169185665406472</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9394197156516624</v>
+        <v>0.02103481523373896</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2170350290524056</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.725521041786793</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.017529290421866</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.01548929693628687</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.8736509033066058</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.04248159508144878</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.4562038045166192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.8163481820617868</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.2748422965366765</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.029801947758923</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5801536470806854</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.02070496101486308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.898917702907339</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1.515764059439522</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.889695654144226</v>
+        <v>0.00870494375344899</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A57:A59"/>
+  <mergeCells count="1">
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
